--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Efnb3</t>
   </si>
   <si>
     <t>Ephb3</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H2">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I2">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J2">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N2">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O2">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P2">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q2">
-        <v>0.043185387315</v>
+        <v>0.09915164134275001</v>
       </c>
       <c r="R2">
-        <v>0.17274154926</v>
+        <v>0.396606565371</v>
       </c>
       <c r="S2">
-        <v>0.003697226379186225</v>
+        <v>0.0064299631548552</v>
       </c>
       <c r="T2">
-        <v>0.002414997100648317</v>
+        <v>0.004163952428114555</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H3">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I3">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J3">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +629,22 @@
         <v>20.963642</v>
       </c>
       <c r="O3">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P3">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q3">
-        <v>1.552864311448333</v>
+        <v>2.131446854887</v>
       </c>
       <c r="R3">
-        <v>9.31718586869</v>
+        <v>12.788681129322</v>
       </c>
       <c r="S3">
-        <v>0.1329452218109307</v>
+        <v>0.1382238817013545</v>
       </c>
       <c r="T3">
-        <v>0.1302580470968263</v>
+        <v>0.1342677214407931</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -664,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H4">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I4">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J4">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N4">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O4">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P4">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q4">
-        <v>0.6893796395012499</v>
+        <v>0.8942522389387501</v>
       </c>
       <c r="R4">
-        <v>2.757518558005</v>
+        <v>3.577008955755</v>
       </c>
       <c r="S4">
-        <v>0.05901979227016482</v>
+        <v>0.05799207022348878</v>
       </c>
       <c r="T4">
-        <v>0.03855123073223504</v>
+        <v>0.03755483753217927</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,46 +729,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H5">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I5">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J5">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N5">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O5">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P5">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q5">
-        <v>0.08128395345666667</v>
+        <v>0.001871605788</v>
       </c>
       <c r="R5">
-        <v>0.48770372074</v>
+        <v>0.011229634728</v>
       </c>
       <c r="S5">
-        <v>0.006958955230213924</v>
+        <v>0.0001213732429870026</v>
       </c>
       <c r="T5">
-        <v>0.006818296331183991</v>
+        <v>0.0001178993715062545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +776,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,10 +797,10 @@
         <v>0.662143</v>
       </c>
       <c r="I6">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J6">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N6">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O6">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P6">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q6">
-        <v>0.042892299254</v>
+        <v>0.07174661512216667</v>
       </c>
       <c r="R6">
-        <v>0.257353795524</v>
+        <v>0.430479690733</v>
       </c>
       <c r="S6">
-        <v>0.003672134259422432</v>
+        <v>0.00465275294965998</v>
       </c>
       <c r="T6">
-        <v>0.003597910709344416</v>
+        <v>0.004519584671536922</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -856,10 +859,10 @@
         <v>0.662143</v>
       </c>
       <c r="I7">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J7">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +877,10 @@
         <v>20.963642</v>
       </c>
       <c r="O7">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P7">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q7">
         <v>1.542325422756222</v>
@@ -886,10 +889,10 @@
         <v>13.880928804806</v>
       </c>
       <c r="S7">
-        <v>0.1320429569546365</v>
+        <v>0.1000194803315187</v>
       </c>
       <c r="T7">
-        <v>0.1940610291010899</v>
+        <v>0.1457351749767164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -918,10 +921,10 @@
         <v>0.662143</v>
       </c>
       <c r="I8">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J8">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N8">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O8">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P8">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q8">
-        <v>0.6847009980811667</v>
+        <v>0.6470853163941667</v>
       </c>
       <c r="R8">
-        <v>4.108205988487001</v>
+        <v>3.882511898365</v>
       </c>
       <c r="S8">
-        <v>0.05861924019566538</v>
+        <v>0.04196334711272579</v>
       </c>
       <c r="T8">
-        <v>0.05743439024116438</v>
+        <v>0.04076229759650544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,40 +983,40 @@
         <v>0.662143</v>
       </c>
       <c r="I9">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J9">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N9">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O9">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P9">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q9">
-        <v>0.08073230027511112</v>
+        <v>0.001354303149333333</v>
       </c>
       <c r="R9">
-        <v>0.726590702476</v>
+        <v>0.012188728344</v>
       </c>
       <c r="S9">
-        <v>0.006911726599841057</v>
+        <v>8.782627531717036E-05</v>
       </c>
       <c r="T9">
-        <v>0.01015803347460127</v>
+        <v>0.0001279688472533254</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1024,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1036,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H10">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I10">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J10">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N10">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O10">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P10">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q10">
-        <v>0.01595352584</v>
+        <v>0.02264655489883333</v>
       </c>
       <c r="R10">
-        <v>0.09572115504000002</v>
+        <v>0.135879329393</v>
       </c>
       <c r="S10">
-        <v>0.001365827661714398</v>
+        <v>0.001468624337549117</v>
       </c>
       <c r="T10">
-        <v>0.001338220670606414</v>
+        <v>0.001426590260873001</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1086,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1098,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H11">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I11">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J11">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1125,22 @@
         <v>20.963642</v>
       </c>
       <c r="O11">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P11">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q11">
-        <v>0.5736584168622222</v>
+        <v>0.4868293409917778</v>
       </c>
       <c r="R11">
-        <v>5.16292575176</v>
+        <v>4.381464068926</v>
       </c>
       <c r="S11">
-        <v>0.04911256245069098</v>
+        <v>0.03157078070406</v>
       </c>
       <c r="T11">
-        <v>0.07217980141301263</v>
+        <v>0.04600077139780782</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1148,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1160,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H12">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I12">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J12">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N12">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O12">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P12">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q12">
-        <v>0.2546703080866667</v>
+        <v>0.2042500976108333</v>
       </c>
       <c r="R12">
-        <v>1.52802184852</v>
+        <v>1.225500585665</v>
       </c>
       <c r="S12">
-        <v>0.02180306440661378</v>
+        <v>0.01324557601092366</v>
       </c>
       <c r="T12">
-        <v>0.02136236678269493</v>
+        <v>0.01286646915328324</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1210,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,46 +1225,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H13">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I13">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J13">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N13">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O13">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P13">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q13">
-        <v>0.03002788055111111</v>
+        <v>0.0004274808026666667</v>
       </c>
       <c r="R13">
-        <v>0.27025092496</v>
+        <v>0.003847327224</v>
       </c>
       <c r="S13">
-        <v>0.002570774027678093</v>
+        <v>2.772204043554724E-05</v>
       </c>
       <c r="T13">
-        <v>0.003778217823226706</v>
+        <v>4.03928954659141E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1272,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5717085</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H14">
-        <v>1.143417</v>
+        <v>1.487516</v>
       </c>
       <c r="I14">
-        <v>0.5212805177532418</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J14">
-        <v>0.4580474585233657</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N14">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O14">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P14">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q14">
-        <v>0.111102399639</v>
+        <v>0.241770066149</v>
       </c>
       <c r="R14">
-        <v>0.444409598556</v>
+        <v>0.9670802645959999</v>
       </c>
       <c r="S14">
-        <v>0.009511798973573727</v>
+        <v>0.0156787381049103</v>
       </c>
       <c r="T14">
-        <v>0.006213026898338371</v>
+        <v>0.0101533271699103</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1334,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5717085</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H15">
-        <v>1.143417</v>
+        <v>1.487516</v>
       </c>
       <c r="I15">
-        <v>0.5212805177532418</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J15">
-        <v>0.4580474585233657</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1373,22 @@
         <v>20.963642</v>
       </c>
       <c r="O15">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P15">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q15">
-        <v>3.995030774118999</v>
+        <v>5.197292148878666</v>
       </c>
       <c r="R15">
-        <v>23.970184644714</v>
+        <v>31.183752893272</v>
       </c>
       <c r="S15">
-        <v>0.3420261825138971</v>
+        <v>0.3370433062906789</v>
       </c>
       <c r="T15">
-        <v>0.3351129283427913</v>
+        <v>0.32739665682589</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1396,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1408,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5717085</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H16">
-        <v>1.143417</v>
+        <v>1.487516</v>
       </c>
       <c r="I16">
-        <v>0.5212805177532418</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J16">
-        <v>0.4580474585233657</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N16">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O16">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P16">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q16">
-        <v>1.77355668138825</v>
+        <v>2.180532969845</v>
       </c>
       <c r="R16">
-        <v>7.094226725553</v>
+        <v>8.722131879379999</v>
       </c>
       <c r="S16">
-        <v>0.1518393362917235</v>
+        <v>0.141407105965932</v>
       </c>
       <c r="T16">
-        <v>0.09918017435264204</v>
+        <v>0.09157322492507415</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1458,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7437579999999999</v>
+      </c>
+      <c r="H17">
+        <v>1.487516</v>
+      </c>
+      <c r="I17">
+        <v>0.4944251052906407</v>
+      </c>
+      <c r="J17">
+        <v>0.4294106932071856</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.006136</v>
+      </c>
+      <c r="N17">
+        <v>0.018408</v>
+      </c>
+      <c r="O17">
+        <v>0.0005985839431548165</v>
+      </c>
+      <c r="P17">
+        <v>0.0006694856249710864</v>
+      </c>
+      <c r="Q17">
+        <v>0.004563699088</v>
+      </c>
+      <c r="R17">
+        <v>0.027382194528</v>
+      </c>
+      <c r="S17">
+        <v>0.000295954929119607</v>
+      </c>
+      <c r="T17">
+        <v>0.0002874842863110801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.5717085</v>
-      </c>
-      <c r="H17">
-        <v>1.143417</v>
-      </c>
-      <c r="I17">
-        <v>0.5212805177532418</v>
-      </c>
-      <c r="J17">
-        <v>0.4580474585233657</v>
-      </c>
-      <c r="K17">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.165128</v>
+      </c>
+      <c r="H18">
+        <v>0.495384</v>
+      </c>
+      <c r="I18">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J18">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.3250655</v>
+      </c>
+      <c r="N18">
+        <v>0.650131</v>
+      </c>
+      <c r="O18">
+        <v>0.03171104771407953</v>
+      </c>
+      <c r="P18">
+        <v>0.02364479350543662</v>
+      </c>
+      <c r="Q18">
+        <v>0.053677415884</v>
+      </c>
+      <c r="R18">
+        <v>0.322064495304</v>
+      </c>
+      <c r="S18">
+        <v>0.00348096916710493</v>
+      </c>
+      <c r="T18">
+        <v>0.003381338975001845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.165128</v>
+      </c>
+      <c r="H19">
+        <v>0.495384</v>
+      </c>
+      <c r="I19">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J19">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.3657773333333333</v>
-      </c>
-      <c r="N17">
-        <v>1.097332</v>
-      </c>
-      <c r="O17">
-        <v>0.03434465583178051</v>
-      </c>
-      <c r="P17">
-        <v>0.03829587655860597</v>
-      </c>
-      <c r="Q17">
-        <v>0.209118010574</v>
-      </c>
-      <c r="R17">
-        <v>1.254708063444</v>
-      </c>
-      <c r="S17">
-        <v>0.01790319997404744</v>
-      </c>
-      <c r="T17">
-        <v>0.017541328929594</v>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.987880666666666</v>
+      </c>
+      <c r="N19">
+        <v>20.963642</v>
+      </c>
+      <c r="O19">
+        <v>0.6816872822276142</v>
+      </c>
+      <c r="P19">
+        <v>0.762432473166021</v>
+      </c>
+      <c r="Q19">
+        <v>1.153894758725333</v>
+      </c>
+      <c r="R19">
+        <v>10.385052828528</v>
+      </c>
+      <c r="S19">
+        <v>0.07482983320000218</v>
+      </c>
+      <c r="T19">
+        <v>0.1090321485248136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.165128</v>
+      </c>
+      <c r="H20">
+        <v>0.495384</v>
+      </c>
+      <c r="I20">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J20">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.9317775</v>
+      </c>
+      <c r="N20">
+        <v>5.863555</v>
+      </c>
+      <c r="O20">
+        <v>0.2860030861151516</v>
+      </c>
+      <c r="P20">
+        <v>0.2132532477035712</v>
+      </c>
+      <c r="Q20">
+        <v>0.48411855502</v>
+      </c>
+      <c r="R20">
+        <v>2.90471133012</v>
+      </c>
+      <c r="S20">
+        <v>0.03139498680208135</v>
+      </c>
+      <c r="T20">
+        <v>0.03049641849652907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.165128</v>
+      </c>
+      <c r="H21">
+        <v>0.495384</v>
+      </c>
+      <c r="I21">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J21">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.006136</v>
+      </c>
+      <c r="N21">
+        <v>0.018408</v>
+      </c>
+      <c r="O21">
+        <v>0.0005985839431548165</v>
+      </c>
+      <c r="P21">
+        <v>0.0006694856249710864</v>
+      </c>
+      <c r="Q21">
+        <v>0.001013225408</v>
+      </c>
+      <c r="R21">
+        <v>0.009119028672</v>
+      </c>
+      <c r="S21">
+        <v>6.570745529548922E-05</v>
+      </c>
+      <c r="T21">
+        <v>9.574022443451236E-05</v>
       </c>
     </row>
   </sheetData>
